--- a/src/main/resources/data/queryFilterPipelineByGraphId.xlsx
+++ b/src/main/resources/data/queryFilterPipelineByGraphId.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>title</t>
   </si>
@@ -31,6 +31,9 @@
     <t>isRun</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>图分析视图-queryFilterPipelineByGraphId-成功查询</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>{"projectId":1426,"graphId":2772}</t>
+  </si>
+  <si>
+    <t>f-100</t>
   </si>
 </sst>
 </file>
@@ -99,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -147,14 +153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +181,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -183,11 +243,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,88 +282,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -310,19 +316,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,157 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +589,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -602,21 +623,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,21 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -670,147 +661,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -858,6 +864,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2025,27 +2034,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="63.1339285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.9910714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.8303571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6339285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.2232142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.9285714285714" style="1" customWidth="1"/>
-    <col min="5" max="16381" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="16382" max="16384" width="16.3303571428571" style="1"/>
+    <col min="5" max="16382" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="16.3303571428571" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:5">
+    <row r="1" ht="20.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,219 +2070,203 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:5">
+    <row r="2" ht="20.25" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
       </c>
+      <c r="F2" s="13"/>
     </row>
-    <row r="3" ht="20.05" customHeight="1" spans="1:5">
+    <row r="3" ht="20.05" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>201</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
+      <c r="F3" s="8"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1" spans="1:5">
+    <row r="4" ht="20.05" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>201</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
+      <c r="F4" s="8"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:5">
+    <row r="5" ht="20.05" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
         <v>201</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:5">
+    <row r="6" ht="20.05" customHeight="1" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8">
         <v>201</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
+      <c r="F6" s="8"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8">
         <v>401</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
+      <c r="F7" s="8"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:5">
+    <row r="8" ht="20.05" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8">
         <v>90009</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
+      <c r="F8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:5">
+    <row r="9" ht="20.05" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8">
         <v>90009</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:5">
+    <row r="10" ht="20.05" customHeight="1" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:5">
+    <row r="11" ht="20.05" customHeight="1" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:5">
+    <row r="12" ht="20.05" customHeight="1" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:5">
+    <row r="13" ht="20.05" customHeight="1" spans="1:6">
       <c r="A13" s="11"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1" spans="1:5">
+    <row r="14" ht="20.05" customHeight="1" spans="1:6">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1" spans="1:5">
+    <row r="15" ht="20.05" customHeight="1" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>

--- a/src/main/resources/data/queryFilterPipelineByGraphId.xlsx
+++ b/src/main/resources/data/queryFilterPipelineByGraphId.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="7280"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>title</t>
   </si>
@@ -88,13 +88,16 @@
     <t>{"projectId":1426,"graphId":2837}</t>
   </si>
   <si>
+    <t>该视图不属于此项目</t>
+  </si>
+  <si>
+    <t>图分析视图-queryFilterPipelineByGraphId-项目下不存在的标签不能操作</t>
+  </si>
+  <si>
+    <t>{"projectId":1426,"graphId":2772}</t>
+  </si>
+  <si>
     <t>无权操作</t>
-  </si>
-  <si>
-    <t>图分析视图-queryFilterPipelineByGraphId-项目下不存在的标签不能操作</t>
-  </si>
-  <si>
-    <t>{"projectId":1426,"graphId":2772}</t>
   </si>
   <si>
     <t>f-100</t>
@@ -105,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -139,23 +142,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,7 +171,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,11 +193,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,14 +219,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +242,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,44 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -288,6 +277,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -316,13 +319,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,163 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,23 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +611,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,23 +659,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,148 +684,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2041,7 +2044,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:E12"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2190,7 +2193,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -2211,13 +2214,13 @@
         <v>90009</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:6">
